--- a/biology/Zoologie/Colibri_huppé/Colibri_huppé.xlsx
+++ b/biology/Zoologie/Colibri_huppé/Colibri_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthorhyncus cristatus
 Le Colibri huppé (Orthorhyncus cristatus) est une espèce d'oiseaux de la famille des Trochilidae, l'unique représentante du genre Orthorhyncus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure entre 8 et 9 cm et pèse entre 3,5 g et 4 g. Les mâles et les femelles ne sont pas de la même couleur. Le mâle est vert olive à reflets métalliques. Sa gorge est gris clair. Son ventre et ses pattes sont gris sombre. La plus grande caractéristique du colibri huppé est sa huppe de couleur vert émeraude à reflets métalliques. Elle est aplatie au repos mais se lève lorsqu’il est menacé ou excité. Son bec est noir, fin et droit. La femelle est beaucoup plus terne. Le haut de son crâne et de ses ailes est vert métallique. Le dessous de ses ailes est gris et sa gorge blanche. Elle ne possède pas de huppe.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de nectar de fleurs et de petits insectes.
 Compte tenu de la taille de son bec, il ne butine pas les mêmes fleurs que les autres colibris.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est assez familier. On le voit souvent butiner les massifs fleuries des jardins. Il construit même parfois son nid dans les habitations. Le colibri huppé est agressif pour garder son territoire. Il peut aller jusqu’à poursuivre un oiseau beaucoup plus grand que lui pour le défendre. Il est d'un naturel fier et guerrier.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit principalement dans les Antilles, de l'est de Porto Rico à travers les petites Antilles, en Amériques Latines
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colibri est facile à observer et à rencontrer. Il est présent dans pratiquement tous les biotopes, les mangroves, les forêts sèches ou humides. Il a une préférence pour les régions boisées avec des clairières.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Reproduction et nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Trois vues d'un même nid - Muséum de Toulouse
@@ -684,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colibri_hupp%C3%A9</t>
+          <t>Colibri_huppé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +726,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe quatre sous-espèces :
 O. c. exilis (Gmelin, JF, 1788) : de Porto Rico à Sainte-Lucie ;
